--- a/PATH_기능정의서-ver01.xlsx
+++ b/PATH_기능정의서-ver01.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghwnw\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11088" windowHeight="6576" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11090" windowHeight="6580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴구조도" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">기능정의서!$A$1:$K$53</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
   <si>
     <t>회사소개
 (About Us)</t>
@@ -535,6 +530,10 @@
   </si>
   <si>
     <t xml:space="preserve">로그인 한 사용자의 아이디를 homeworkController에 보내 아이디에 해당하는 과제정보를 json형식의 배열에 담아 반환한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인된 유저의 아이디와 비번을 입력받아 본인임을 확인하고 확인한 후에 변경할 비밀번호를 입력받아 userController에 id와 pw를 ajax통신으로 보내 확인 후 변경할 pw를 DAO를 통해 DB에 접근하여 비밀번호를 변경한다. 성공여부를 json형식에 담아 반환한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1353,7 +1352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1585,6 +1584,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1609,13 +1671,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1624,97 +1689,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1783,7 +1797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1818,7 +1832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2033,66 +2047,66 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="9.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.59765625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.59765625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.59765625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="1.59765625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.59765625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9.59765625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.58203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.58203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.58203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.58203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.58203125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.58203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.58203125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9.58203125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="4:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J4" s="79" t="s">
+    <row r="3" spans="4:20" ht="13.75" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="4:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
-    </row>
-    <row r="5" spans="4:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J5" s="82"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
-    </row>
-    <row r="7" spans="4:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="4:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="77" t="s">
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="102"/>
+    </row>
+    <row r="5" spans="4:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="105"/>
+    </row>
+    <row r="7" spans="4:20" ht="13.75" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="4:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D8" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="G8" s="77" t="s">
+      <c r="E8" s="99"/>
+      <c r="G8" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="J8" s="77" t="s">
+      <c r="H8" s="99"/>
+      <c r="J8" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="78"/>
-      <c r="M8" s="77" t="s">
+      <c r="K8" s="99"/>
+      <c r="M8" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="P8" s="77" t="s">
+      <c r="N8" s="99"/>
+      <c r="P8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="78"/>
-      <c r="S8" s="77" t="s">
+      <c r="Q8" s="99"/>
+      <c r="S8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="78"/>
+      <c r="T8" s="99"/>
     </row>
     <row r="9" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E9" s="2"/>
@@ -2102,100 +2116,86 @@
       <c r="Q9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="85" t="s">
+    <row r="10" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="G10" s="85" t="s">
+      <c r="E10" s="97"/>
+      <c r="G10" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="J10" s="85" t="s">
+      <c r="H10" s="97"/>
+      <c r="J10" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="M10" s="85" t="s">
+      <c r="K10" s="97"/>
+      <c r="M10" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="86"/>
-      <c r="P10" s="85" t="s">
+      <c r="N10" s="97"/>
+      <c r="P10" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="86"/>
-      <c r="S10" s="85" t="s">
+      <c r="Q10" s="97"/>
+      <c r="S10" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="86"/>
-    </row>
-    <row r="11" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="85" t="s">
+      <c r="T10" s="97"/>
+    </row>
+    <row r="11" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="G11" s="85" t="s">
+      <c r="E11" s="97"/>
+      <c r="G11" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="J11" s="85" t="s">
+      <c r="H11" s="97"/>
+      <c r="J11" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="M11" s="85" t="s">
+      <c r="K11" s="97"/>
+      <c r="M11" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="86"/>
-      <c r="P11" s="85" t="s">
+      <c r="N11" s="97"/>
+      <c r="P11" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="86"/>
-      <c r="S11" s="85" t="s">
+      <c r="Q11" s="97"/>
+      <c r="S11" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="86"/>
-    </row>
-    <row r="12" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="85" t="s">
+      <c r="T11" s="97"/>
+    </row>
+    <row r="12" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="G12" s="85" t="s">
+      <c r="E12" s="97"/>
+      <c r="G12" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="J12" s="85" t="s">
+      <c r="H12" s="97"/>
+      <c r="J12" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="M12" s="85" t="s">
+      <c r="K12" s="97"/>
+      <c r="M12" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="86"/>
-      <c r="P12" s="85" t="s">
+      <c r="N12" s="97"/>
+      <c r="P12" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="86"/>
-      <c r="S12" s="85" t="s">
+      <c r="Q12" s="97"/>
+      <c r="S12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="86"/>
+      <c r="T12" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="J4:N5"/>
@@ -2207,6 +2207,20 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="S11:T11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,28 +2230,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="44" style="3" customWidth="1"/>
-    <col min="8" max="8" width="44.296875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="44.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>52</v>
       </c>
@@ -2259,7 +2273,7 @@
       <c r="I2" s="47"/>
       <c r="J2" s="48"/>
     </row>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="44"/>
       <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
@@ -2287,7 +2301,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="55" t="s">
         <v>44</v>
       </c>
@@ -2301,7 +2315,7 @@
       <c r="I5" s="56"/>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="21" t="s">
         <v>25</v>
       </c>
@@ -2347,11 +2361,11 @@
       <c r="I7" s="59"/>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="1:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="93" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -2369,17 +2383,17 @@
       <c r="G8" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="99" t="s">
+      <c r="H8" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="77" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="31" t="s">
         <v>57</v>
       </c>
@@ -2401,17 +2415,17 @@
       <c r="G9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="I9" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="79" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="61.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="31" t="s">
         <v>63</v>
       </c>
@@ -2433,10 +2447,10 @@
       <c r="G10" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="91" t="s">
+      <c r="I10" s="78" t="s">
         <v>64</v>
       </c>
       <c r="J10" s="18" t="s">
@@ -2457,31 +2471,31 @@
       <c r="I11" s="62"/>
       <c r="J11" s="63"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="93" t="s">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="80" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="94"/>
-      <c r="H12" s="100" t="s">
+      <c r="G12" s="81"/>
+      <c r="H12" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="91" t="s">
+      <c r="I12" s="78" t="s">
         <v>64</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="52" t="s">
         <v>66</v>
       </c>
@@ -2495,17 +2509,17 @@
       <c r="I13" s="53"/>
       <c r="J13" s="54"/>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="52.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="107" t="s">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.45">
+      <c r="A14" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="120" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="123" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="36" t="s">
@@ -2525,16 +2539,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="108"/>
-      <c r="B15" s="88"/>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="107"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="90" t="s">
         <v>88</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -2551,16 +2565,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="109"/>
-      <c r="B16" s="89"/>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="108"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="90" t="s">
         <v>88</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -2577,29 +2591,29 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="88" t="s">
         <v>91</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="89" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="98" t="s">
+      <c r="G17" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="98"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="34" t="s">
         <v>43</v>
       </c>
@@ -2607,7 +2621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="61" t="s">
         <v>34</v>
       </c>
@@ -2621,8 +2635,8 @@
       <c r="I18" s="62"/>
       <c r="J18" s="63"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="93" t="s">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="80" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="71" t="s">
@@ -2651,7 +2665,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>68</v>
       </c>
@@ -2681,8 +2695,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="96" t="s">
+    <row r="21" spans="1:10" ht="25.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="83" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="64" t="s">
@@ -2711,17 +2725,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="110" t="s">
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="109" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="106" t="s">
+      <c r="D22" s="92" t="s">
         <v>99</v>
       </c>
       <c r="E22" s="25" t="s">
@@ -2741,13 +2755,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="108"/>
-      <c r="B23" s="88"/>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="107"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="106" t="s">
+      <c r="D23" s="92" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="25" t="s">
@@ -2759,7 +2773,9 @@
       <c r="G23" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="125" t="s">
+        <v>124</v>
+      </c>
       <c r="I23" s="34" t="s">
         <v>43</v>
       </c>
@@ -2767,13 +2783,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="109"/>
-      <c r="B24" s="89"/>
+    <row r="24" spans="1:10" ht="25.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="108"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="106" t="s">
+      <c r="D24" s="92" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="25" t="s">
@@ -2793,17 +2809,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="116" t="s">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="63.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="117" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="92" t="s">
         <v>120</v>
       </c>
       <c r="E25" s="75" t="s">
@@ -2815,7 +2831,7 @@
       <c r="G25" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="120" t="s">
+      <c r="H25" s="95" t="s">
         <v>121</v>
       </c>
       <c r="I25" s="34" t="s">
@@ -2825,13 +2841,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="117"/>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="64.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="116"/>
       <c r="B26" s="118"/>
       <c r="C26" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="105"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="20"/>
       <c r="F26" s="19" t="s">
         <v>46</v>
@@ -2839,7 +2855,7 @@
       <c r="G26" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="101" t="s">
+      <c r="H26" s="87" t="s">
         <v>123</v>
       </c>
       <c r="I26" s="34" t="s">
@@ -2849,7 +2865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="52" t="s">
         <v>35</v>
       </c>
@@ -2863,21 +2879,21 @@
       <c r="I27" s="53"/>
       <c r="J27" s="54"/>
     </row>
-    <row r="28" spans="1:10" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="113" t="s">
+    <row r="28" spans="1:10" ht="73.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="115"/>
-    </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="114"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
@@ -2889,7 +2905,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
@@ -2901,12 +2917,12 @@
       <c r="I30" s="29"/>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>37</v>
       </c>
@@ -2921,7 +2937,7 @@
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="13"/>
       <c r="B33" s="65"/>
       <c r="C33" s="66"/>
@@ -2930,38 +2946,38 @@
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2978,7 +2994,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PATH_기능정의서-ver01.xlsx
+++ b/PATH_기능정의서-ver01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghwnw\Desktop\PATH\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11090" windowHeight="6580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11088" windowHeight="6576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴구조도" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>회사소개
 (About Us)</t>
@@ -171,9 +176,6 @@
     <t>Information</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>일자</t>
   </si>
   <si>
@@ -212,10 +214,6 @@
   </si>
   <si>
     <t>Header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,12 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">개발언어 : 
-도메인 : 
-호스팅 : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과제 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,23 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>me화면으로 이동후 쿠키삭제?????</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자가 과제 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,6 +509,60 @@
   </si>
   <si>
     <t>로그인된 유저의 아이디와 비번을 입력받아 본인임을 확인하고 확인한 후에 변경할 비밀번호를 입력받아 userController에 id와 pw를 ajax통신으로 보내 확인 후 변경할 pw를 DAO를 통해 DB에 접근하여 비밀번호를 변경한다. 성공여부를 json형식에 담아 반환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 시간표정보를 ajax통신으로 보내 homeworkController를 이용하여 사용자 별로 시간표정보를 저장한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 선택한 강의를 homeworkController를 이용하여 데이터 베이스에서 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 선택한 강의를 homeworkController를 이용하여 데이터 베이스에서 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표와 과제정보를 subjectController와 homeworkcontroller를 이용하여 home화면에 뿌려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>━</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>━</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 할 정보를 userController에 보내 데이터베이스에 저장되어있는 정보를 사용자가 입력한 정보로 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 사용자와 관련된 모든정보를 데이터베이스에서 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발언어 : java, jps, css, js
+도메인 : -
+호스팅 : -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.09.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능정의서 ver01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,14 +682,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -706,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1307,17 +1328,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1352,7 +1362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,9 +1435,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,15 +1543,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1566,80 +1564,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1647,39 +1657,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1701,35 +1690,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1797,7 +1789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1832,7 +1824,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2047,66 +2039,66 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="9.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.58203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.58203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.58203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.58203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.58203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.58203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="1.58203125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.58203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.58203125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9.58203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.59765625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.59765625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.59765625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.59765625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9.59765625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20" ht="13.75" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="4:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J4" s="100" t="s">
+    <row r="3" spans="4:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="4:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="102"/>
-    </row>
-    <row r="5" spans="4:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="105"/>
-    </row>
-    <row r="7" spans="4:20" ht="13.75" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="4:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D8" s="98" t="s">
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="92"/>
+    </row>
+    <row r="5" spans="4:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J5" s="93"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="95"/>
+    </row>
+    <row r="7" spans="4:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="4:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="G8" s="98" t="s">
+      <c r="E8" s="89"/>
+      <c r="G8" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="J8" s="98" t="s">
+      <c r="H8" s="89"/>
+      <c r="J8" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="M8" s="98" t="s">
+      <c r="K8" s="89"/>
+      <c r="M8" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="99"/>
-      <c r="P8" s="98" t="s">
+      <c r="N8" s="89"/>
+      <c r="P8" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="99"/>
-      <c r="S8" s="98" t="s">
+      <c r="Q8" s="89"/>
+      <c r="S8" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="99"/>
+      <c r="T8" s="89"/>
     </row>
     <row r="9" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E9" s="2"/>
@@ -2116,7 +2108,7 @@
       <c r="Q9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" s="96" t="s">
         <v>7</v>
       </c>
@@ -2142,7 +2134,7 @@
       </c>
       <c r="T10" s="97"/>
     </row>
-    <row r="11" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="96" t="s">
         <v>8</v>
       </c>
@@ -2168,7 +2160,7 @@
       </c>
       <c r="T11" s="97"/>
     </row>
-    <row r="12" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" s="96" t="s">
         <v>9</v>
       </c>
@@ -2196,6 +2188,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="J4:N5"/>
@@ -2207,20 +2213,6 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="S11:T11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2232,66 +2224,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="3" customWidth="1"/>
     <col min="7" max="7" width="44" style="3" customWidth="1"/>
-    <col min="8" max="8" width="44.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="44.296875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="43"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
+      <c r="F2" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
+      <c r="F3" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
@@ -2301,21 +2293,21 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
         <v>25</v>
       </c>
@@ -2338,7 +2330,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>32</v>
@@ -2348,627 +2340,659 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A15" s="99"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A16" s="100"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="77"/>
+      <c r="I17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="35" t="s">
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="37" t="s">
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="88.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="99"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="100"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="94" t="s">
+      <c r="H25" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="61.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="25" t="s">
+      <c r="I25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="109"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="86" t="s">
+      <c r="G26" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.45">
-      <c r="A14" s="119" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="123" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="39" t="s">
+      <c r="H26" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="33" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="107"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="108"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="76" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="25.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="107"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="25.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="108"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="63.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="64.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="116"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="52" t="s">
+      <c r="J26" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-    </row>
-    <row r="28" spans="1:10" ht="73.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="114"/>
-    </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="107"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="12" t="s">
+      <c r="B32" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="13"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="13"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-    </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-    </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-    </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-    </row>
-    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A14:A16"/>
@@ -2994,7 +3018,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
